--- a/Sorption Experiments/RadiumExperimentPlan_May7_2017.xlsx
+++ b/Sorption Experiments/RadiumExperimentPlan_May7_2017.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
   <si>
     <t>Experimental Plan</t>
   </si>
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,6 +529,7 @@
     <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17" bestFit="1" customWidth="1"/>
@@ -916,6 +917,11 @@
         <v>22</v>
       </c>
     </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P12" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>30</v>

--- a/Sorption Experiments/RadiumExperimentPlan_May7_2017.xlsx
+++ b/Sorption Experiments/RadiumExperimentPlan_May7_2017.xlsx
@@ -514,7 +514,7 @@
   <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,7 +528,7 @@
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17" bestFit="1" customWidth="1"/>

--- a/Sorption Experiments/RadiumExperimentPlan_May7_2017.xlsx
+++ b/Sorption Experiments/RadiumExperimentPlan_May7_2017.xlsx
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Sorption Experiments/RadiumExperimentPlan_May7_2017.xlsx
+++ b/Sorption Experiments/RadiumExperimentPlan_May7_2017.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Dropbox (Personal)\work\MIT Graduate Work\Research\RadiumSorption\Sorption Experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mache\Dropbox (Personal)\work\MIT Graduate Work\Research\RadiumSorption\Sorption Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -510,11 +510,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
